--- a/doc/20231001_09_Registro de Riesgos.xlsx
+++ b/doc/20231001_09_Registro de Riesgos.xlsx
@@ -164,7 +164,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi+mFw3pA4Z+F7JeP2zDYk9b9GlJA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjBZ8UMDUeDOYCHcRQqYVJVsnbCGQ=="/>
     </ext>
   </extLst>
 </comments>
@@ -318,14 +318,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi/GP/XGRlEGAcO+Rrg3eZvYBgI+Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mitCg3m2H4uLM6YRPq/jJ05RvW3xw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="267">
   <si>
     <t>Registro de Riesgos</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>Problemas técnicos inesperados, falta de recursos o habilidades específicas se puede solucionar anticipadamente para ciertas tareas</t>
+  </si>
+  <si>
+    <t>Asegurarse de llevar a cabo pruebas rigurosas para garantizar que el aplicativo funcione correctamente y esté libre de errores antes de su lanzamiento.</t>
   </si>
   <si>
     <t>La expansión controlada de las características y funcionalidades del aplicativo da la oportunidad de que el desarrollo puede ser mas efectivo.</t>
@@ -2009,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2316,6 +2319,9 @@
     </xf>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -30657,11 +30663,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="S12:T12"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:G66">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
@@ -31278,7 +31284,9 @@
         <f>'Registro de Riesgos'!J12</f>
         <v>Dennys Dolorier</v>
       </c>
-      <c r="K12" s="100"/>
+      <c r="K12" s="105" t="s">
+        <v>162</v>
+      </c>
       <c r="L12" s="101" t="str">
         <f t="shared" si="2"/>
         <v>280923b</v>
@@ -31300,33 +31308,33 @@
       <c r="Y12" s="47"/>
     </row>
     <row r="13" ht="48.75" customHeight="1">
-      <c r="A13" s="105" t="str">
+      <c r="A13" s="106" t="str">
         <f>'Registro de Riesgos'!A13</f>
         <v>300923a</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="108" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="110">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="111" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="98" t="str">
@@ -31334,28 +31342,28 @@
         <v>Dennys Dolorier</v>
       </c>
       <c r="K13" s="100"/>
-      <c r="L13" s="111" t="str">
+      <c r="L13" s="112" t="str">
         <f t="shared" si="2"/>
         <v>300923a</v>
       </c>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="117" t="s">
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="U13" s="118">
+      <c r="U13" s="119">
         <f>Prioridades!B10</f>
         <v>4</v>
       </c>
-      <c r="V13" s="116"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="115"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
     </row>
     <row r="14" ht="27.0" customHeight="1">
       <c r="A14" s="97" t="str">
@@ -31363,7 +31371,7 @@
         <v>300923b</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>33</v>
@@ -31421,19 +31429,19 @@
         <v>011023a</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G15" s="41">
         <f t="shared" si="1"/>
@@ -31469,33 +31477,33 @@
       <c r="Y15" s="47"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="105" t="str">
+      <c r="A16" s="106" t="str">
         <f>'Registro de Riesgos'!A16</f>
         <v>011023b</v>
       </c>
-      <c r="B16" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="108" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="110">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="111" t="s">
         <v>35</v>
       </c>
       <c r="J16" s="98" t="str">
@@ -31503,23 +31511,23 @@
         <v>Cristopher Aguilar</v>
       </c>
       <c r="K16" s="100"/>
-      <c r="L16" s="111" t="str">
+      <c r="L16" s="112" t="str">
         <f t="shared" si="2"/>
         <v>011023b</v>
       </c>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="97" t="str">
@@ -31527,13 +31535,13 @@
         <v>011023a</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>34</v>
@@ -31580,13 +31588,13 @@
         <v>011023b</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>34</v>
@@ -31633,13 +31641,13 @@
         <v>021023a</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>45</v>
@@ -31686,13 +31694,13 @@
         <v>021023b</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>45</v>
@@ -31739,13 +31747,13 @@
         <v>031023a</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>23</v>
@@ -31792,13 +31800,13 @@
         <v>031023b</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>23</v>
@@ -31843,7 +31851,7 @@
       <c r="A23" s="77"/>
       <c r="B23" s="68"/>
       <c r="C23" s="69"/>
-      <c r="D23" s="119"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
       <c r="G23" s="71"/>
@@ -58579,28 +58587,28 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-      <c r="O1" s="120"/>
+      <c r="O1" s="121"/>
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="121" t="s">
-        <v>182</v>
+      <c r="C2" s="122" t="s">
+        <v>183</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="122"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="8"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="120"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="21"/>
@@ -58617,219 +58625,219 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="123"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="61"/>
       <c r="B4" s="61"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="128"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="129"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="61"/>
     </row>
     <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="134"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="135"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="136">
+      <c r="B6" s="137">
         <v>4.5</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="134"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="135"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="139">
         <v>2.0</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="132" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="134"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="135"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="60"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="134"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="135"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="141"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="142"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="128"/>
+      <c r="G9" s="129"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="141"/>
+      <c r="J9" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="142"/>
       <c r="L9" s="55"/>
-      <c r="M9" s="128"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="10"/>
       <c r="O9" s="61"/>
     </row>
     <row r="10">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="136">
+      <c r="B10" s="137">
         <v>4.0</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="146" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="141"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="142"/>
       <c r="H10" s="55"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="146" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="141"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="142"/>
       <c r="N10" s="55"/>
       <c r="O10" s="61"/>
     </row>
     <row r="11">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="138">
+      <c r="B11" s="139">
         <v>2.0</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="141"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="142"/>
       <c r="H11" s="55"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="141"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="142"/>
       <c r="N11" s="55"/>
       <c r="O11" s="61"/>
     </row>
     <row r="12">
       <c r="A12" s="61"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="146" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" s="141"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="142"/>
       <c r="H12" s="55"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="146" t="s">
-        <v>192</v>
-      </c>
-      <c r="M12" s="141"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="142"/>
       <c r="N12" s="55"/>
       <c r="O12" s="61"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="128"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="129"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -58837,340 +58845,340 @@
     </row>
     <row r="14" ht="27.75" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158" t="s">
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="159"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="160"/>
       <c r="O14" s="61"/>
     </row>
     <row r="15" ht="27.75" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="161">
+      <c r="C15" s="162">
         <v>9.0</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="163">
         <f t="shared" ref="D15:H15" si="1">$C$15*D20</f>
         <v>0.9</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="163">
         <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="163">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="163">
         <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
-      <c r="H15" s="162">
+      <c r="H15" s="163">
         <f t="shared" si="1"/>
         <v>8.1</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="162">
+      <c r="I15" s="164"/>
+      <c r="J15" s="163">
         <f t="shared" ref="J15:N15" si="2">$C$15*J20</f>
         <v>8.1</v>
       </c>
-      <c r="K15" s="162">
+      <c r="K15" s="163">
         <f t="shared" si="2"/>
         <v>6.3</v>
       </c>
-      <c r="L15" s="162">
+      <c r="L15" s="163">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="M15" s="162">
+      <c r="M15" s="163">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="N15" s="162">
+      <c r="N15" s="163">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="O15" s="164"/>
+      <c r="O15" s="165"/>
     </row>
     <row r="16" ht="27.75" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="161">
+      <c r="B16" s="166"/>
+      <c r="C16" s="162">
         <v>7.0</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="163">
         <f t="shared" ref="D16:H16" si="3">$C$16*D20</f>
         <v>0.7</v>
       </c>
-      <c r="E16" s="162">
+      <c r="E16" s="163">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
-      <c r="F16" s="162">
+      <c r="F16" s="163">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="163">
         <f t="shared" si="3"/>
         <v>4.9</v>
       </c>
-      <c r="H16" s="162">
+      <c r="H16" s="163">
         <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
-      <c r="I16" s="166"/>
-      <c r="J16" s="162">
+      <c r="I16" s="167"/>
+      <c r="J16" s="163">
         <f t="shared" ref="J16:N16" si="4">$C$16*J20</f>
         <v>6.3</v>
       </c>
-      <c r="K16" s="162">
+      <c r="K16" s="163">
         <f t="shared" si="4"/>
         <v>4.9</v>
       </c>
-      <c r="L16" s="162">
+      <c r="L16" s="163">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="M16" s="162">
+      <c r="M16" s="163">
         <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
-      <c r="N16" s="162">
+      <c r="N16" s="163">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="O16" s="164"/>
+      <c r="O16" s="165"/>
     </row>
     <row r="17" ht="27.75" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="161">
+      <c r="B17" s="166"/>
+      <c r="C17" s="162">
         <v>5.0</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="163">
         <f t="shared" ref="D17:H17" si="5">$C$17*D20</f>
         <v>0.5</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="163">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="F17" s="162">
+      <c r="F17" s="163">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="163">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="H17" s="162">
+      <c r="H17" s="163">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="I17" s="166"/>
-      <c r="J17" s="162">
+      <c r="I17" s="167"/>
+      <c r="J17" s="163">
         <f t="shared" ref="J17:N17" si="6">$C$17*J20</f>
         <v>4.5</v>
       </c>
-      <c r="K17" s="162">
+      <c r="K17" s="163">
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="L17" s="162">
+      <c r="L17" s="163">
         <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-      <c r="M17" s="162">
+      <c r="M17" s="163">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="N17" s="162">
+      <c r="N17" s="163">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="O17" s="164"/>
+      <c r="O17" s="165"/>
     </row>
     <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="161">
+      <c r="B18" s="166"/>
+      <c r="C18" s="162">
         <v>3.0</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="163">
         <f t="shared" ref="D18:H18" si="7">$C$18*D20</f>
         <v>0.3</v>
       </c>
-      <c r="E18" s="162">
+      <c r="E18" s="163">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="163">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="163">
         <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H18" s="163">
         <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
-      <c r="I18" s="166"/>
-      <c r="J18" s="162">
+      <c r="I18" s="167"/>
+      <c r="J18" s="163">
         <f t="shared" ref="J18:N18" si="8">$C$18*J20</f>
         <v>2.7</v>
       </c>
-      <c r="K18" s="162">
+      <c r="K18" s="163">
         <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
-      <c r="L18" s="162">
+      <c r="L18" s="163">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="M18" s="162">
+      <c r="M18" s="163">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="N18" s="162">
+      <c r="N18" s="163">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="O18" s="164"/>
+      <c r="O18" s="165"/>
     </row>
     <row r="19" ht="27.75" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="161">
+      <c r="B19" s="168"/>
+      <c r="C19" s="162">
         <v>1.0</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="163">
         <f t="shared" ref="D19:H19" si="9">$C$19*D20</f>
         <v>0.1</v>
       </c>
-      <c r="E19" s="162">
+      <c r="E19" s="163">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="F19" s="162">
+      <c r="F19" s="163">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="163">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="H19" s="162">
+      <c r="H19" s="163">
         <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
-      <c r="I19" s="166"/>
-      <c r="J19" s="162">
+      <c r="I19" s="167"/>
+      <c r="J19" s="163">
         <f t="shared" ref="J19:N19" si="10">$C$19*J20</f>
         <v>0.9</v>
       </c>
-      <c r="K19" s="162">
+      <c r="K19" s="163">
         <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
-      <c r="L19" s="162">
+      <c r="L19" s="163">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="M19" s="162">
+      <c r="M19" s="163">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
-      <c r="N19" s="162">
+      <c r="N19" s="163">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="O19" s="164"/>
+      <c r="O19" s="165"/>
     </row>
     <row r="20" ht="27.75" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169">
+      <c r="B20" s="140"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170">
         <v>0.1</v>
       </c>
-      <c r="E20" s="169">
+      <c r="E20" s="170">
         <v>0.3</v>
       </c>
-      <c r="F20" s="170">
+      <c r="F20" s="171">
         <v>0.5</v>
       </c>
-      <c r="G20" s="169">
+      <c r="G20" s="170">
         <v>0.7</v>
       </c>
-      <c r="H20" s="169">
+      <c r="H20" s="170">
         <v>0.9</v>
       </c>
-      <c r="I20" s="171"/>
-      <c r="J20" s="169">
+      <c r="I20" s="172"/>
+      <c r="J20" s="170">
         <v>0.9</v>
       </c>
-      <c r="K20" s="172">
+      <c r="K20" s="173">
         <v>0.7</v>
       </c>
-      <c r="L20" s="169">
+      <c r="L20" s="170">
         <v>0.5</v>
       </c>
-      <c r="M20" s="169">
+      <c r="M20" s="170">
         <v>0.3</v>
       </c>
-      <c r="N20" s="169">
+      <c r="N20" s="170">
         <v>0.1</v>
       </c>
-      <c r="O20" s="164"/>
+      <c r="O20" s="165"/>
     </row>
     <row r="21" ht="27.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174" t="s">
+      <c r="C21" s="174"/>
+      <c r="D21" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="177"/>
       <c r="O21" s="61"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
@@ -62192,8 +62200,8 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="18.0" customHeight="1">
-      <c r="A2" s="177" t="s">
-        <v>193</v>
+      <c r="A2" s="178" t="s">
+        <v>194</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -62204,322 +62212,322 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="178" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="178" t="s">
+      <c r="A4" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="B4" s="179" t="s">
         <v>196</v>
       </c>
+      <c r="C4" s="179" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="180">
+      <c r="A6" s="181">
         <v>1.0</v>
       </c>
-      <c r="B6" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="179"/>
+      <c r="B6" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="180"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="180" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179" t="s">
+      <c r="A7" s="181" t="s">
         <v>199</v>
       </c>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="180" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179" t="s">
+      <c r="A8" s="181" t="s">
         <v>201</v>
       </c>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="180" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179" t="s">
+      <c r="A9" s="181" t="s">
         <v>203</v>
       </c>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="180" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179" t="s">
+      <c r="A10" s="181" t="s">
         <v>205</v>
       </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="180" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179" t="s">
+      <c r="A11" s="181" t="s">
         <v>207</v>
       </c>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="180" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179" t="s">
+      <c r="A12" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="180" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179" t="s">
+      <c r="A13" s="181" t="s">
         <v>210</v>
       </c>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="180"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="180" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="179" t="s">
+      <c r="A15" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="179"/>
+      <c r="B15" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="180"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="180" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179" t="s">
+      <c r="A16" s="181" t="s">
         <v>214</v>
       </c>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="180" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179" t="s">
+      <c r="A17" s="181" t="s">
         <v>216</v>
       </c>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179" t="s">
+      <c r="A18" s="181" t="s">
         <v>218</v>
       </c>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="180" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179" t="s">
+      <c r="A19" s="181" t="s">
         <v>220</v>
       </c>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="180" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179" t="s">
+      <c r="A20" s="181" t="s">
         <v>222</v>
       </c>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="180" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179" t="s">
+      <c r="A21" s="181" t="s">
         <v>224</v>
       </c>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="180" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179" t="s">
+      <c r="A22" s="181" t="s">
         <v>226</v>
       </c>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="180"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="180" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="179" t="s">
+      <c r="A24" s="181" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="179"/>
+      <c r="B24" s="180" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="180"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="180" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179" t="s">
+      <c r="A25" s="181" t="s">
         <v>230</v>
       </c>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="180" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179" t="s">
+      <c r="A26" s="181" t="s">
         <v>232</v>
       </c>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="180" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179" t="s">
+      <c r="A27" s="181" t="s">
         <v>234</v>
       </c>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="180" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179" t="s">
+      <c r="A28" s="181" t="s">
         <v>236</v>
       </c>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="180" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179" t="s">
+      <c r="A29" s="181" t="s">
         <v>238</v>
       </c>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="180" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179" t="s">
+      <c r="A30" s="181" t="s">
         <v>240</v>
       </c>
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="180"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="180" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="179" t="s">
+      <c r="A32" s="181" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="179"/>
+      <c r="B32" s="180" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="180"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="180" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179" t="s">
+      <c r="A33" s="181" t="s">
         <v>244</v>
       </c>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="180" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179" t="s">
+      <c r="A34" s="181" t="s">
         <v>246</v>
       </c>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="180" t="s">
-        <v>247</v>
-      </c>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179" t="s">
+      <c r="A35" s="181" t="s">
         <v>248</v>
       </c>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="180" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179" t="s">
+      <c r="A36" s="181" t="s">
         <v>250</v>
       </c>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="180"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
+      <c r="A37" s="181"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="180"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="180"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="180"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="180"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="180"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="180"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
     </row>
     <row r="44" ht="12.75" customHeight="1"/>
     <row r="45" ht="12.75" customHeight="1"/>
@@ -63506,49 +63514,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="181" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
-      <c r="T1" s="182"/>
-      <c r="U1" s="182"/>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
+      <c r="A1" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="184" t="s">
-        <v>252</v>
+      <c r="B2" s="185" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="183" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="184" t="s">
+      <c r="A3" s="184" t="s">
         <v>254</v>
+      </c>
+      <c r="B3" s="185" t="s">
+        <v>255</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -63576,51 +63584,51 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" ht="75.0" customHeight="1">
-      <c r="A4" s="183" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="184" t="s">
+      <c r="A4" s="184" t="s">
         <v>256</v>
       </c>
+      <c r="B4" s="185" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="5" ht="89.25" customHeight="1">
-      <c r="A5" s="183" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="184" t="s">
+      <c r="A5" s="184" t="s">
         <v>258</v>
       </c>
+      <c r="B5" s="185" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="184" t="s">
-        <v>259</v>
+      <c r="B6" s="185" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="184" t="s">
-        <v>260</v>
+      <c r="B7" s="185" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="8" ht="69.75" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="184" t="s">
-        <v>261</v>
+      <c r="B8" s="185" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="183" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="184" t="s">
+      <c r="A9" s="184" t="s">
         <v>263</v>
+      </c>
+      <c r="B9" s="185" t="s">
+        <v>264</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -63648,11 +63656,11 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="184" t="s">
-        <v>264</v>
+      <c r="B10" s="185" t="s">
+        <v>265</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -63680,12 +63688,12 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="185"/>
-      <c r="B11" s="184"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="185"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="185"/>
-      <c r="B12" s="184"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="185"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="47"/>
@@ -63702,7 +63710,7 @@
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
